--- a/medicine/Enfance/Lorena_(romancière)/Lorena_(romancière).xlsx
+++ b/medicine/Enfance/Lorena_(romancière)/Lorena_(romancière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorena_(romanci%C3%A8re)</t>
+          <t>Lorena_(romancière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorena (nom de plume de Huguette Le Beau[2]) est une auteure française de romans sentimentaux, parus principalement aux éditions Tallandier. Née le 3 septembre 1924 à Saint-Gratien et morte le 15 mars 2018 à Souppes-sur-Loing, elle obtient le prix du Roman populaire en 1964 pour La septième clé[3]'[4]. Sous son véritable nom, elle écrit des romans pour la jeunesse dans les années 1970[5] et reçoit le prix des Deux chances décerné par Hachette Jeunesse pour Le sphinx enseveli[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorena (nom de plume de Huguette Le Beau) est une auteure française de romans sentimentaux, parus principalement aux éditions Tallandier. Née le 3 septembre 1924 à Saint-Gratien et morte le 15 mars 2018 à Souppes-sur-Loing, elle obtient le prix du Roman populaire en 1964 pour La septième clé'. Sous son véritable nom, elle écrit des romans pour la jeunesse dans les années 1970 et reçoit le prix des Deux chances décerné par Hachette Jeunesse pour Le sphinx enseveli.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorena_(romanci%C3%A8re)</t>
+          <t>Lorena_(romancière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous le nom d'Huguette Le Beau
-La guitare endormie, 1974
-Le sphinx enseveli, 1976
-Sous le nom de Lorena
-Te reverrai-je, Felicidad ?, 1958
+          <t>Sous le nom d'Huguette Le Beau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La guitare endormie, 1974
+Le sphinx enseveli, 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lorena_(romancière)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorena_(romanci%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous le nom de Lorena</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Te reverrai-je, Felicidad ?, 1958
 Vous êtes ma prisonnière, 1959
 Le masque et l'amour, 1961
 La septième clé, 1964
